--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,22 +70,28 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>pleased</t>
@@ -94,172 +100,181 @@
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>son</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>great</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cooks</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>cooks</t>
+    <t>super</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
+    <t>baking</t>
+  </si>
+  <si>
     <t>nicely</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>baking</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>always</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>dish</t>
   </si>
   <si>
     <t>pan</t>
@@ -268,100 +283,112 @@
     <t>exactly</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>brand</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
     <t>fast</t>
   </si>
   <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>little</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>hot</t>
+    <t>food</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>purchased</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>purchase</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
     <t>easily</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>got</t>
+  </si>
+  <si>
     <t>job</t>
   </si>
   <si>
-    <t>got</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>handle</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>used</t>
@@ -370,25 +397,10 @@
     <t>much</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>work</t>
   </si>
   <si>
     <t>size</t>
-  </si>
-  <si>
-    <t>price</t>
   </si>
   <si>
     <t>product</t>
@@ -752,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,7 +775,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -895,13 +907,13 @@
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -913,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -921,13 +933,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4716981132075472</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -939,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -963,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -971,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3875968992248062</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -989,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8828125</v>
       </c>
       <c r="L6">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1013,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1021,37 +1033,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3131313131313131</v>
+        <v>0.3775510204081632</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1063,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1071,13 +1083,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2948717948717949</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1089,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8622291021671826</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>557</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>557</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1113,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1121,13 +1133,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2162162162162162</v>
+        <v>0.1837837837837838</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1139,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1163,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1171,13 +1183,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1197,13 +1209,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7402597402597403</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="L11">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1215,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1223,13 +1235,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7316017316017316</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L12">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="M12">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1249,13 +1261,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7192982456140351</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1267,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,13 +1287,13 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7123287671232876</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L14">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1313,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.688135593220339</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L15">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1339,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6875</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1353,13 +1365,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6857142857142857</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L17">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1379,13 +1391,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1397,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1405,13 +1417,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6709470304975923</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>836</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>836</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1423,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1431,13 +1443,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6621187800963082</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>825</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>825</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1449,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>421</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1457,13 +1469,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6617647058823529</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1475,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1483,13 +1495,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6530612244897959</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1501,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1509,13 +1521,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6461538461538462</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1527,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1535,13 +1547,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6428571428571429</v>
+        <v>0.65625</v>
       </c>
       <c r="L24">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1553,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1561,13 +1573,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6228571428571429</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L25">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M25">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1579,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1587,13 +1599,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6078431372549019</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1605,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1613,13 +1625,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.6057692307692307</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L27">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1631,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1639,13 +1651,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.6056338028169014</v>
+        <v>0.6144578313253012</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1657,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1665,13 +1677,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.6041666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1683,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1691,13 +1703,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5897435897435898</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1709,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1717,13 +1729,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5748502994011976</v>
+        <v>0.5808383233532934</v>
       </c>
       <c r="L31">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M31">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1735,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1743,13 +1755,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5555555555555556</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1761,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1769,13 +1781,13 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5526315789473685</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1787,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1795,13 +1807,13 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.55</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1813,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1847,13 +1859,13 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.5230769230769231</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M36">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1865,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1873,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.5213675213675214</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L37">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M37">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1891,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1899,13 +1911,13 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.5180722891566265</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="L38">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1917,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1925,13 +1937,13 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>0.5112781954887218</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="L39">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1943,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1951,13 +1963,13 @@
         <v>53</v>
       </c>
       <c r="K40">
-        <v>0.5102040816326531</v>
+        <v>0.481203007518797</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1969,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1977,13 +1989,13 @@
         <v>54</v>
       </c>
       <c r="K41">
-        <v>0.49</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="L41">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1995,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2003,13 +2015,13 @@
         <v>55</v>
       </c>
       <c r="K42">
-        <v>0.4821428571428572</v>
+        <v>0.47</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2021,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2029,13 +2041,13 @@
         <v>56</v>
       </c>
       <c r="K43">
-        <v>0.4759036144578313</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L43">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2047,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2055,13 +2067,13 @@
         <v>57</v>
       </c>
       <c r="K44">
-        <v>0.4754098360655737</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2073,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2081,13 +2093,13 @@
         <v>58</v>
       </c>
       <c r="K45">
-        <v>0.4516129032258064</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="M45">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2099,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2107,7 +2119,7 @@
         <v>59</v>
       </c>
       <c r="K46">
-        <v>0.45</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="L46">
         <v>27</v>
@@ -2125,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2133,25 +2145,25 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.4444444444444444</v>
+        <v>0.4211822660098522</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>35</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2159,13 +2171,13 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.4363636363636363</v>
+        <v>0.4046692607003891</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="M48">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2177,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>31</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2185,13 +2197,13 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.4320987654320987</v>
+        <v>0.4</v>
       </c>
       <c r="L49">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2203,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2211,13 +2223,13 @@
         <v>63</v>
       </c>
       <c r="K50">
-        <v>0.4135338345864661</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L50">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M50">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2229,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>78</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2237,13 +2249,13 @@
         <v>64</v>
       </c>
       <c r="K51">
-        <v>0.4074074074074074</v>
+        <v>0.3808219178082192</v>
       </c>
       <c r="L51">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="M51">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2255,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>64</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2263,13 +2275,13 @@
         <v>65</v>
       </c>
       <c r="K52">
-        <v>0.4068627450980392</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L52">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="M52">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2281,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>242</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2289,13 +2301,13 @@
         <v>66</v>
       </c>
       <c r="K53">
-        <v>0.3923444976076555</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L53">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="M53">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2307,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2315,25 +2327,25 @@
         <v>67</v>
       </c>
       <c r="K54">
-        <v>0.390625</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L54">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="N54">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>156</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2341,22 +2353,22 @@
         <v>68</v>
       </c>
       <c r="K55">
-        <v>0.3727272727272727</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L55">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M55">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>69</v>
@@ -2367,13 +2379,13 @@
         <v>69</v>
       </c>
       <c r="K56">
-        <v>0.3676470588235294</v>
+        <v>0.3597122302158273</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M56">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2385,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2393,13 +2405,13 @@
         <v>70</v>
       </c>
       <c r="K57">
-        <v>0.3669064748201439</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L57">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2411,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2419,13 +2431,13 @@
         <v>71</v>
       </c>
       <c r="K58">
-        <v>0.3603603603603603</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="L58">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M58">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2437,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>71</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2445,13 +2457,13 @@
         <v>72</v>
       </c>
       <c r="K59">
-        <v>0.3547945205479452</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="L59">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2463,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>471</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2471,13 +2483,13 @@
         <v>73</v>
       </c>
       <c r="K60">
-        <v>0.3333333333333333</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="L60">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2489,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2497,13 +2509,13 @@
         <v>74</v>
       </c>
       <c r="K61">
-        <v>0.3333333333333333</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L61">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M61">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2515,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2523,13 +2535,13 @@
         <v>75</v>
       </c>
       <c r="K62">
-        <v>0.3294117647058823</v>
+        <v>0.3110871905274489</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>289</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>289</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2541,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>57</v>
+        <v>640</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2549,13 +2561,13 @@
         <v>76</v>
       </c>
       <c r="K63">
-        <v>0.3154362416107382</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L63">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M63">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2567,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2575,13 +2587,13 @@
         <v>77</v>
       </c>
       <c r="K64">
-        <v>0.310010764262648</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L64">
-        <v>288</v>
+        <v>33</v>
       </c>
       <c r="M64">
-        <v>288</v>
+        <v>33</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2593,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>641</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2601,13 +2613,13 @@
         <v>78</v>
       </c>
       <c r="K65">
-        <v>0.3069306930693069</v>
+        <v>0.28</v>
       </c>
       <c r="L65">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M65">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2619,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2627,13 +2639,13 @@
         <v>79</v>
       </c>
       <c r="K66">
-        <v>0.2900662251655629</v>
+        <v>0.2798408488063661</v>
       </c>
       <c r="L66">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M66">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2642,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2653,25 +2665,25 @@
         <v>80</v>
       </c>
       <c r="K67">
-        <v>0.2672413793103448</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="L67">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M67">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2679,25 +2691,25 @@
         <v>81</v>
       </c>
       <c r="K68">
-        <v>0.2582781456953642</v>
+        <v>0.2641025641025641</v>
       </c>
       <c r="L68">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="M68">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>112</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2705,13 +2717,13 @@
         <v>82</v>
       </c>
       <c r="K69">
-        <v>0.2570532915360502</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L69">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M69">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2723,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>237</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2731,25 +2743,25 @@
         <v>83</v>
       </c>
       <c r="K70">
-        <v>0.25</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L70">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M70">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N70">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2757,25 +2769,25 @@
         <v>84</v>
       </c>
       <c r="K71">
-        <v>0.2477535301668806</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L71">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="M71">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="N71">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>586</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2783,13 +2795,13 @@
         <v>85</v>
       </c>
       <c r="K72">
-        <v>0.2476190476190476</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L72">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M72">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2801,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2809,13 +2821,13 @@
         <v>86</v>
       </c>
       <c r="K73">
-        <v>0.2461538461538462</v>
+        <v>0.2477064220183486</v>
       </c>
       <c r="L73">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M73">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2827,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2835,13 +2847,13 @@
         <v>87</v>
       </c>
       <c r="K74">
-        <v>0.2459016393442623</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="L74">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="M74">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2853,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>92</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2861,25 +2873,25 @@
         <v>88</v>
       </c>
       <c r="K75">
-        <v>0.2385321100917431</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="L75">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M75">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2887,25 +2899,25 @@
         <v>89</v>
       </c>
       <c r="K76">
-        <v>0.2298288508557457</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="L76">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="M76">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>315</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2913,13 +2925,13 @@
         <v>90</v>
       </c>
       <c r="K77">
-        <v>0.2248062015503876</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="L77">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2931,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2939,13 +2951,13 @@
         <v>91</v>
       </c>
       <c r="K78">
-        <v>0.2073170731707317</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L78">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M78">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2957,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2965,25 +2977,25 @@
         <v>92</v>
       </c>
       <c r="K79">
-        <v>0.2068965517241379</v>
+        <v>0.218978102189781</v>
       </c>
       <c r="L79">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="M79">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="N79">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>230</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2991,25 +3003,25 @@
         <v>93</v>
       </c>
       <c r="K80">
-        <v>0.2039800995024875</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="L80">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M80">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N80">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>160</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3017,13 +3029,13 @@
         <v>94</v>
       </c>
       <c r="K81">
-        <v>0.2016806722689076</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="L81">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M81">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3035,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>190</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3043,25 +3055,25 @@
         <v>95</v>
       </c>
       <c r="K82">
-        <v>0.2</v>
+        <v>0.2096219931271478</v>
       </c>
       <c r="L82">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M82">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N82">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3069,25 +3081,25 @@
         <v>96</v>
       </c>
       <c r="K83">
-        <v>0.1987179487179487</v>
+        <v>0.2086720867208672</v>
       </c>
       <c r="L83">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="M83">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>125</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3095,25 +3107,25 @@
         <v>97</v>
       </c>
       <c r="K84">
-        <v>0.1951219512195122</v>
+        <v>0.2061068702290076</v>
       </c>
       <c r="L84">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M84">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N84">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3121,7 +3133,7 @@
         <v>98</v>
       </c>
       <c r="K85">
-        <v>0.192090395480226</v>
+        <v>0.2060606060606061</v>
       </c>
       <c r="L85">
         <v>34</v>
@@ -3139,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3147,25 +3159,25 @@
         <v>99</v>
       </c>
       <c r="K86">
-        <v>0.1912568306010929</v>
+        <v>0.2016806722689076</v>
       </c>
       <c r="L86">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="M86">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="N86">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>296</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3173,25 +3185,25 @@
         <v>100</v>
       </c>
       <c r="K87">
-        <v>0.1888111888111888</v>
+        <v>0.1988636363636364</v>
       </c>
       <c r="L87">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M87">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N87">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O87">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3199,13 +3211,13 @@
         <v>101</v>
       </c>
       <c r="K88">
-        <v>0.1837708830548926</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L88">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M88">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3217,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>342</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3225,25 +3237,25 @@
         <v>102</v>
       </c>
       <c r="K89">
-        <v>0.1835443037974684</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="L89">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M89">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N89">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O89">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>129</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3251,13 +3263,13 @@
         <v>103</v>
       </c>
       <c r="K90">
-        <v>0.1777777777777778</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="L90">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="M90">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3269,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>222</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3277,25 +3289,25 @@
         <v>104</v>
       </c>
       <c r="K91">
-        <v>0.1755725190839695</v>
+        <v>0.1890547263681592</v>
       </c>
       <c r="L91">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M91">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>108</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3303,25 +3315,25 @@
         <v>105</v>
       </c>
       <c r="K92">
-        <v>0.1747572815533981</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L92">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M92">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N92">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>170</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3329,13 +3341,13 @@
         <v>106</v>
       </c>
       <c r="K93">
-        <v>0.1717791411042945</v>
+        <v>0.1789976133651551</v>
       </c>
       <c r="L93">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="M93">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3347,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>135</v>
+        <v>344</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3355,13 +3367,13 @@
         <v>107</v>
       </c>
       <c r="K94">
-        <v>0.1688311688311688</v>
+        <v>0.1779141104294479</v>
       </c>
       <c r="L94">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M94">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3373,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3381,13 +3393,13 @@
         <v>108</v>
       </c>
       <c r="K95">
-        <v>0.1681818181818182</v>
+        <v>0.1772727272727273</v>
       </c>
       <c r="L95">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M95">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3399,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3407,25 +3419,25 @@
         <v>109</v>
       </c>
       <c r="K96">
-        <v>0.1644736842105263</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L96">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="M96">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>381</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3433,13 +3445,13 @@
         <v>110</v>
       </c>
       <c r="K97">
-        <v>0.139344262295082</v>
+        <v>0.1734317343173432</v>
       </c>
       <c r="L97">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M97">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3451,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>315</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3459,13 +3471,13 @@
         <v>111</v>
       </c>
       <c r="K98">
-        <v>0.1370967741935484</v>
+        <v>0.1625</v>
       </c>
       <c r="L98">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M98">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3477,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>214</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3485,25 +3497,25 @@
         <v>112</v>
       </c>
       <c r="K99">
-        <v>0.1351351351351351</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="L99">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M99">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3511,25 +3523,25 @@
         <v>113</v>
       </c>
       <c r="K100">
-        <v>0.1348600508905853</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="L100">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M100">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N100">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>340</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3537,25 +3549,25 @@
         <v>114</v>
       </c>
       <c r="K101">
-        <v>0.1251167133520075</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="L101">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="M101">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="N101">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>937</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3563,25 +3575,25 @@
         <v>115</v>
       </c>
       <c r="K102">
-        <v>0.1248206599713056</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="L102">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="M102">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="N102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>610</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3589,25 +3601,25 @@
         <v>116</v>
       </c>
       <c r="K103">
-        <v>0.09441233140655106</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="L103">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M103">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N103">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>470</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3615,25 +3627,25 @@
         <v>117</v>
       </c>
       <c r="K104">
-        <v>0.09141274238227147</v>
+        <v>0.124765478424015</v>
       </c>
       <c r="L104">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="M104">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="N104">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="O104">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>328</v>
+        <v>933</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3641,13 +3653,13 @@
         <v>118</v>
       </c>
       <c r="K105">
-        <v>0.08872458410351201</v>
+        <v>0.1192528735632184</v>
       </c>
       <c r="L105">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="M105">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="N105">
         <v>0.98</v>
@@ -3659,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>493</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3667,25 +3679,25 @@
         <v>119</v>
       </c>
       <c r="K106">
-        <v>0.08487084870848709</v>
+        <v>0.1171548117154812</v>
       </c>
       <c r="L106">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M106">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N106">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>248</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3693,13 +3705,13 @@
         <v>120</v>
       </c>
       <c r="K107">
-        <v>0.0823937554206418</v>
+        <v>0.1096938775510204</v>
       </c>
       <c r="L107">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="M107">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="N107">
         <v>0.96</v>
@@ -3711,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>1058</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3719,25 +3731,25 @@
         <v>121</v>
       </c>
       <c r="K108">
-        <v>0.07542579075425791</v>
+        <v>0.1070110701107011</v>
       </c>
       <c r="L108">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M108">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N108">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O108">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>380</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3745,25 +3757,25 @@
         <v>122</v>
       </c>
       <c r="K109">
-        <v>0.07432432432432433</v>
+        <v>0.09981515711645102</v>
       </c>
       <c r="L109">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="M109">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N109">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="O109">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>274</v>
+        <v>487</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3771,25 +3783,25 @@
         <v>123</v>
       </c>
       <c r="K110">
-        <v>0.07122507122507123</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="L110">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M110">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N110">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="O110">
-        <v>0.22</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>326</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3797,25 +3809,25 @@
         <v>124</v>
       </c>
       <c r="K111">
-        <v>0.06705539358600583</v>
+        <v>0.08434782608695653</v>
       </c>
       <c r="L111">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M111">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="N111">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O111">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>320</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3823,25 +3835,129 @@
         <v>125</v>
       </c>
       <c r="K112">
-        <v>0.05562913907284768</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L112">
         <v>42</v>
       </c>
       <c r="M112">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N112">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="O112">
-        <v>0.22</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>713</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K113">
+        <v>0.07734806629834254</v>
+      </c>
+      <c r="L113">
+        <v>28</v>
+      </c>
+      <c r="M113">
+        <v>31</v>
+      </c>
+      <c r="N113">
+        <v>0.9</v>
+      </c>
+      <c r="O113">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P113" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K114">
+        <v>0.06983240223463687</v>
+      </c>
+      <c r="L114">
+        <v>25</v>
+      </c>
+      <c r="M114">
+        <v>38</v>
+      </c>
+      <c r="N114">
+        <v>0.66</v>
+      </c>
+      <c r="O114">
+        <v>0.34</v>
+      </c>
+      <c r="P114" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K115">
+        <v>0.06267806267806268</v>
+      </c>
+      <c r="L115">
+        <v>22</v>
+      </c>
+      <c r="M115">
+        <v>29</v>
+      </c>
+      <c r="N115">
+        <v>0.76</v>
+      </c>
+      <c r="O115">
+        <v>0.24</v>
+      </c>
+      <c r="P115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K116">
+        <v>0.04913678618857902</v>
+      </c>
+      <c r="L116">
+        <v>37</v>
+      </c>
+      <c r="M116">
+        <v>51</v>
+      </c>
+      <c r="N116">
+        <v>0.73</v>
+      </c>
+      <c r="O116">
+        <v>0.27</v>
+      </c>
+      <c r="P116" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
